--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna Kokoreva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AAE738-D800-4AA5-AEEB-E131343639E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C4217-7AD8-4E57-91DA-4337DD4EBB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{B4497013-7CD4-4AF6-99D2-EFC82AC8A417}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>JOB_ID</t>
   </si>
   <si>
-    <t>Steeven</t>
-  </si>
-  <si>
     <t>King</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>SDET</t>
+  </si>
+  <si>
+    <t>Steven</t>
   </si>
 </sst>
 </file>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA188783-1B36-413D-915D-69507AC24A79}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,46 +446,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna Kokoreva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna Kokoreva\IdeaProjects\cybertek21-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C4217-7AD8-4E57-91DA-4337DD4EBB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B91B9B-0D18-467B-ABCC-C6386ADD9732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{B4497013-7CD4-4AF6-99D2-EFC82AC8A417}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -42,9 +42,6 @@
     <t>President</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
     <t>Sandler</t>
   </si>
   <si>
@@ -70,12 +67,19 @@
   </si>
   <si>
     <t>Steven</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>Tom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,14 +427,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA188783-1B36-413D-915D-69507AC24A79}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,7 +448,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -457,35 +459,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
